--- a/Core_Java_module/Errors.xlsx
+++ b/Core_Java_module/Errors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Firstbit Course\Core_Java_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83096869-3E60-448D-B5EE-160BA11A5666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8C008-4A9C-4366-9675-932AE47B6005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0ED4C53E-05A7-4A23-88E3-98D267AAF726}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ERRORS</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>Add new keyword and initialize the variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reached end of file while parsing
-} //class TestCourse ends here</t>
   </si>
   <si>
     <t>Parenthisis not matched</t>
@@ -69,13 +65,46 @@
   </si>
   <si>
     <t>enclose string in " "</t>
+  </si>
+  <si>
+    <t>java.lang.ClassCastException: class HR cannot be cast to class Admin</t>
+  </si>
+  <si>
+    <t>reached end of file while parsing} //class TestCourse ends here</t>
+  </si>
+  <si>
+    <t>Classes are not of same type</t>
+  </si>
+  <si>
+    <t>Make them same by typecasting</t>
+  </si>
+  <si>
+    <t>java.util.ConcurrentModificationException</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when we try to remove an element from a collection using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>advanced for loop</t>
+    </r>
+  </si>
+  <si>
+    <t>Use iterator functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +125,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -261,15 +297,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}" name="Table1" displayName="Table1" ref="G3:J6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="G3:J6" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}" name="Table1" displayName="Table1" ref="G3:J8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G3:J8" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1426973B-41F3-4374-8207-F16B4C267550}" name="Sr. No" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{188FC844-5D06-4E78-8523-752D9739D7D9}" name="Error " dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7296A8A1-E776-4374-A1F9-5C6B862D8A5C}" name="Reason" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A6E609F6-BC9C-45E9-8A9B-AFA550D81F90}" name="Solution" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -570,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC98724-170E-4E4E-8AA8-2E1264A21B02}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="133" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="136" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,6 +617,9 @@
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
@@ -588,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -603,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="G4" s="3">
         <v>1</v>
@@ -618,32 +657,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="2:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Core_Java_module/Errors.xlsx
+++ b/Core_Java_module/Errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Firstbit Course\Core_Java_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8C008-4A9C-4366-9675-932AE47B6005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF41A3-F8B5-47A8-8F6A-92F59B635CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0ED4C53E-05A7-4A23-88E3-98D267AAF726}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E5" zoomScale="136" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Core_Java_module/Errors.xlsx
+++ b/Core_Java_module/Errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Firstbit Course\Core_Java_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF41A3-F8B5-47A8-8F6A-92F59B635CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCF3D4-EACE-4774-8CEE-21AF4BAA72B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0ED4C53E-05A7-4A23-88E3-98D267AAF726}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ERRORS</t>
   </si>
@@ -98,6 +98,34 @@
   </si>
   <si>
     <t>Use iterator functions</t>
+  </si>
+  <si>
+    <t>java.io.NotSerializableException</t>
+  </si>
+  <si>
+    <t>The object which you are reading or writing doesn't have the permission to do so.</t>
+  </si>
+  <si>
+    <t>java.io.FileNotFoundException</t>
+  </si>
+  <si>
+    <t>The file which you are tring to read or write can't be found</t>
+  </si>
+  <si>
+    <t>java.io.StreamCorruptedException</t>
+  </si>
+  <si>
+    <t>The file you reading or writing may be modified manually</t>
+  </si>
+  <si>
+    <t>Try to restore the file to original state.</t>
+  </si>
+  <si>
+    <t>1. path may be wrong  
+2.file may not be there</t>
+  </si>
+  <si>
+    <t>Make the used class as Serializable. i.e Student or Employee implement Serializable into them</t>
   </si>
 </sst>
 </file>
@@ -158,13 +186,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,8 +330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}" name="Table1" displayName="Table1" ref="G3:J8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="G3:J8" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}" name="Table1" displayName="Table1" ref="G3:J11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G3:J11" xr:uid="{C5C792B7-B898-4D38-843F-E7DC6535BBA3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1426973B-41F3-4374-8207-F16B4C267550}" name="Sr. No" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{188FC844-5D06-4E78-8523-752D9739D7D9}" name="Error " dataDxfId="2"/>
@@ -606,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC98724-170E-4E4E-8AA8-2E1264A21B02}">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,100 +656,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="G4" s="3">
+      <c r="B4" s="2"/>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>